--- a/TiendaProyecto/datos_exportados2.xlsx
+++ b/TiendaProyecto/datos_exportados2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
   <si>
     <t>DNI_Cliente</t>
   </si>
@@ -35,6 +35,24 @@
     <t>email</t>
   </si>
   <si>
+    <t>021245789C</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Garcia Vaquerizo</t>
+  </si>
+  <si>
+    <t>C/ Cerveza un Lunes 6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ey@yahoo.es</t>
+  </si>
+  <si>
     <t>02145896X</t>
   </si>
   <si>
@@ -65,9 +83,6 @@
     <t>C/ Pirra 8, 9ºA</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>02290488C</t>
   </si>
   <si>
@@ -230,9 +245,6 @@
     <t>12345678J</t>
   </si>
   <si>
-    <t>Javier</t>
-  </si>
-  <si>
     <t>Calle uno, 32</t>
   </si>
   <si>
@@ -267,6 +279,21 @@
   </si>
   <si>
     <t>xxxxxxx@gmail.com</t>
+  </si>
+  <si>
+    <t>254646C</t>
+  </si>
+  <si>
+    <t>Barrios  2</t>
+  </si>
+  <si>
+    <t>C/ Inventada 3</t>
+  </si>
+  <si>
+    <t>$2a$10$YnzIJs/7gtsOqwz6MJizr.aG1V8bQTjlyhEM3jxGOGL3r5Ko2x8Wm</t>
+  </si>
+  <si>
+    <t>hector@gmail.com</t>
   </si>
   <si>
     <t>26565654C</t>
@@ -419,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -459,7 +486,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>6.58741236E8</v>
+        <v>6.58775112E8</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -482,7 +509,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>6.58745672E8</v>
+        <v>6.58741236E8</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -491,30 +518,30 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>6.9964564E7</v>
+        <v>6.58745672E8</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -528,62 +555,62 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>2.147483647E9</v>
+        <v>6.9964564E7</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
       </c>
       <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
         <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="n">
+        <v>2.147483647E9</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="n">
-        <v>8.72458833E8</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>6.9958978E7</v>
+        <v>8.72458833E8</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -597,62 +624,62 @@
         <v>40</v>
       </c>
       <c r="D8" t="n">
-        <v>6.99874126E8</v>
+        <v>6.9958978E7</v>
       </c>
       <c r="E8" t="s">
         <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" t="n">
-        <v>6.58754687E8</v>
+        <v>6.99874126E8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="n">
-        <v>9.87567752E8</v>
+        <v>6.58754687E8</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -666,13 +693,13 @@
         <v>53</v>
       </c>
       <c r="D11" t="n">
-        <v>1.1111111E7</v>
+        <v>9.87567752E8</v>
       </c>
       <c r="E11" t="s">
         <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
         <v>55</v>
@@ -689,7 +716,7 @@
         <v>58</v>
       </c>
       <c r="D12" t="n">
-        <v>9.5123578E7</v>
+        <v>1.1111111E7</v>
       </c>
       <c r="E12" t="s">
         <v>59</v>
@@ -712,174 +739,174 @@
         <v>63</v>
       </c>
       <c r="D13" t="n">
-        <v>2.147483647E9</v>
+        <v>9.5123578E7</v>
       </c>
       <c r="E13" t="s">
         <v>64</v>
       </c>
       <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
         <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
         <v>67</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>68</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="n">
+        <v>2.147483647E9</v>
+      </c>
+      <c r="E14" t="s">
         <v>69</v>
       </c>
-      <c r="D14" t="n">
-        <v>6.99857412E8</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>70</v>
       </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D15" t="n">
-        <v>9.87456321E8</v>
+        <v>6.99857412E8</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9.87456321E8</v>
+      </c>
+      <c r="E16" t="s">
         <v>77</v>
       </c>
-      <c r="D16" t="n">
-        <v>6.99029507E8</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
         <v>78</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
         <v>80</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>81</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="n">
+        <v>6.99029507E8</v>
+      </c>
+      <c r="E17" t="s">
         <v>82</v>
       </c>
-      <c r="D17" t="n">
-        <v>6.66665568E8</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
         <v>83</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
         <v>85</v>
       </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D18" t="n">
-        <v>6.99029507E8</v>
+        <v>6.66665568E8</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D19" t="n">
-        <v>6.4547375E7</v>
+        <v>6.5842597E7</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D20" t="n">
-        <v>6.5822387E7</v>
+        <v>6.99029507E8</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
         <v>95</v>
@@ -890,36 +917,36 @@
         <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D21" t="n">
-        <v>6.58745236E8</v>
+        <v>6.4547375E7</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>102</v>
       </c>
       <c r="D22" t="n">
-        <v>6.58996478E8</v>
+        <v>6.5822387E7</v>
       </c>
       <c r="E22" t="s">
         <v>103</v>
@@ -928,76 +955,122 @@
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
         <v>106</v>
       </c>
       <c r="D23" t="n">
-        <v>6.58746677E8</v>
+        <v>6.58745236E8</v>
       </c>
       <c r="E23" t="s">
         <v>107</v>
       </c>
       <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
         <v>108</v>
-      </c>
-      <c r="G23" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s">
         <v>110</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="n">
+        <v>6.58996478E8</v>
+      </c>
+      <c r="E24" t="s">
         <v>112</v>
       </c>
-      <c r="D24" t="n">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>113</v>
-      </c>
       <c r="F24" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6.58746677E8</v>
+      </c>
+      <c r="E25" t="s">
         <v>116</v>
       </c>
-      <c r="B25" t="s">
+      <c r="F25" t="s">
         <v>117</v>
       </c>
-      <c r="C25" t="s">
+      <c r="G25" t="s">
         <v>118</v>
       </c>
-      <c r="D25" t="n">
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" t="n">
         <v>4.5613345E7</v>
       </c>
-      <c r="E25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
-        <v>120</v>
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/TiendaProyecto/datos_exportados2.xlsx
+++ b/TiendaProyecto/datos_exportados2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="135">
   <si>
     <t>DNI_Cliente</t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t>ey@yahoo.es</t>
+  </si>
+  <si>
+    <t>021247781</t>
+  </si>
+  <si>
+    <t>Joselu</t>
+  </si>
+  <si>
+    <t>OEOEOE</t>
+  </si>
+  <si>
+    <t>C/ 123</t>
+  </si>
+  <si>
+    <t>aaa@eeee.net</t>
   </si>
   <si>
     <t>02145896X</t>
@@ -446,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -509,62 +524,62 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>6.58741236E8</v>
+        <v>9.1919191E7</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="n">
+        <v>6.58741236E8</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="n">
-        <v>6.58745672E8</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>6.9964564E7</v>
+        <v>6.58745672E8</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -578,62 +593,62 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>2.147483647E9</v>
+        <v>6.9964564E7</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
       </c>
       <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="n">
+        <v>2.147483647E9</v>
+      </c>
+      <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="n">
-        <v>8.72458833E8</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="n">
-        <v>6.9958978E7</v>
+        <v>8.72458833E8</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -647,7 +662,7 @@
         <v>45</v>
       </c>
       <c r="D9" t="n">
-        <v>6.99874126E8</v>
+        <v>6.9958978E7</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
@@ -656,24 +671,24 @@
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>6.58754687E8</v>
+        <v>6.99874126E8</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -684,25 +699,25 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" t="n">
-        <v>9.87567752E8</v>
+        <v>6.58754687E8</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -716,7 +731,7 @@
         <v>58</v>
       </c>
       <c r="D12" t="n">
-        <v>1.1111111E7</v>
+        <v>9.87567752E8</v>
       </c>
       <c r="E12" t="s">
         <v>59</v>
@@ -739,13 +754,13 @@
         <v>63</v>
       </c>
       <c r="D13" t="n">
-        <v>9.5123578E7</v>
+        <v>1.1111111E7</v>
       </c>
       <c r="E13" t="s">
         <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
         <v>65</v>
@@ -762,82 +777,82 @@
         <v>68</v>
       </c>
       <c r="D14" t="n">
-        <v>2.147483647E9</v>
+        <v>9.5123578E7</v>
       </c>
       <c r="E14" t="s">
         <v>69</v>
       </c>
       <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
         <v>70</v>
-      </c>
-      <c r="G14" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
         <v>72</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>73</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="n">
+        <v>2.147483647E9</v>
+      </c>
+      <c r="E15" t="s">
         <v>74</v>
       </c>
-      <c r="D15" t="n">
-        <v>6.99857412E8</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>75</v>
       </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D16" t="n">
-        <v>9.87456321E8</v>
+        <v>6.99857412E8</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
         <v>79</v>
       </c>
-      <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
       <c r="D17" t="n">
-        <v>6.99029507E8</v>
+        <v>9.87456321E8</v>
       </c>
       <c r="E17" t="s">
         <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
         <v>83</v>
@@ -854,13 +869,13 @@
         <v>86</v>
       </c>
       <c r="D18" t="n">
-        <v>6.66665568E8</v>
+        <v>6.99029507E8</v>
       </c>
       <c r="E18" t="s">
         <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
         <v>88</v>
@@ -871,19 +886,19 @@
         <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19" t="n">
-        <v>6.5842597E7</v>
+        <v>6.66665568E8</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
         <v>93</v>
@@ -894,42 +909,42 @@
         <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D20" t="n">
-        <v>6.99029507E8</v>
+        <v>6.5842597E7</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D21" t="n">
-        <v>6.4547375E7</v>
+        <v>6.99029507E8</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
         <v>100</v>
@@ -940,137 +955,160 @@
         <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22" t="n">
-        <v>6.5822387E7</v>
+        <v>6.4547375E7</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D23" t="n">
-        <v>6.58745236E8</v>
+        <v>6.5822387E7</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
         <v>111</v>
       </c>
       <c r="D24" t="n">
-        <v>6.58996478E8</v>
+        <v>6.58745236E8</v>
       </c>
       <c r="E24" t="s">
         <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D25" t="n">
-        <v>6.58746677E8</v>
+        <v>6.58996478E8</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F25" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" t="s">
         <v>119</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>120</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="n">
+        <v>6.58746677E8</v>
+      </c>
+      <c r="E26" t="s">
         <v>121</v>
       </c>
-      <c r="D26" t="n">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>122</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>123</v>
-      </c>
-      <c r="G26" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" t="s">
         <v>125</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>126</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="n">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="E27" t="s">
         <v>127</v>
       </c>
-      <c r="D27" t="n">
-        <v>4.5613345E7</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>128</v>
-      </c>
-      <c r="F27" t="s">
-        <v>17</v>
       </c>
       <c r="G27" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.5613345E7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/TiendaProyecto/datos_exportados2.xlsx
+++ b/TiendaProyecto/datos_exportados2.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos Exportados" r:id="rId3" sheetId="1"/>
+    <sheet name="Datos de clientes exportados" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="151">
   <si>
     <t>DNI_Cliente</t>
   </si>
@@ -35,6 +35,24 @@
     <t>email</t>
   </si>
   <si>
+    <t>0000000011111</t>
+  </si>
+  <si>
+    <t>Lu</t>
+  </si>
+  <si>
+    <t>Buye Garcia</t>
+  </si>
+  <si>
+    <t>C/1234325R325325</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>abdel@gmail.com</t>
+  </si>
+  <si>
     <t>021245789C</t>
   </si>
   <si>
@@ -47,9 +65,6 @@
     <t>C/ Cerveza un Lunes 6</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>ey@yahoo.es</t>
   </si>
   <si>
@@ -158,6 +173,24 @@
     <t>sasasasas@gmail.com</t>
   </si>
   <si>
+    <t>03957830C</t>
+  </si>
+  <si>
+    <t>GptPrueba</t>
+  </si>
+  <si>
+    <t>Open AI</t>
+  </si>
+  <si>
+    <t>Avenida De Orcasue</t>
+  </si>
+  <si>
+    <t>$2a$10$jZDAA9kD1amt6KTmAOA5e.QheCad/OWOrYC3lC2TXyyrdSP/.rDZq</t>
+  </si>
+  <si>
+    <t>alberto886585845@gmail.com</t>
+  </si>
+  <si>
     <t>04882949C</t>
   </si>
   <si>
@@ -281,6 +314,24 @@
     <t>alberto206@gmail.com</t>
   </si>
   <si>
+    <t>19293848G</t>
+  </si>
+  <si>
+    <t>Albertos</t>
+  </si>
+  <si>
+    <t>Garcías Lópezs</t>
+  </si>
+  <si>
+    <t>Calle Padul, 1286</t>
+  </si>
+  <si>
+    <t>$2a$10$uiR/bwIqD4r8CZ8pyxQ6q.vAUJ0nepGKeAkT5fdaRtDPls8c/4dIS</t>
+  </si>
+  <si>
+    <t>albertoestavivo106@hotmail.com</t>
+  </si>
+  <si>
     <t>22122554C</t>
   </si>
   <si>
@@ -333,9 +384,6 @@
   </si>
   <si>
     <t>454545578</t>
-  </si>
-  <si>
-    <t>Lu</t>
   </si>
   <si>
     <t>C/ Placas tectónicas 22</t>
@@ -461,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -501,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>6.58775112E8</v>
+        <v>9.8438498E7</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -524,7 +572,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>9.1919191E7</v>
+        <v>6.58775112E8</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -547,62 +595,62 @@
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>6.58741236E8</v>
+        <v>9.1919191E7</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="n">
+        <v>6.58741236E8</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="n">
-        <v>6.58745672E8</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>6.9964564E7</v>
+        <v>6.58745672E8</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -616,62 +664,62 @@
         <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>2.147483647E9</v>
+        <v>6.9964564E7</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
       </c>
       <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
         <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="n">
+        <v>2.147483647E9</v>
+      </c>
+      <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="n">
-        <v>8.72458833E8</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>42</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" t="n">
-        <v>6.9958978E7</v>
+        <v>8.72458833E8</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -685,7 +733,7 @@
         <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>6.99874126E8</v>
+        <v>6.9958978E7</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -694,119 +742,119 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" t="n">
-        <v>6.58754687E8</v>
+        <v>2.25947126E8</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D12" t="n">
-        <v>9.87567752E8</v>
+        <v>6.99874126E8</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D13" t="n">
-        <v>1.1111111E7</v>
+        <v>6.58754687E8</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" t="n">
-        <v>9.5123578E7</v>
+        <v>9.87567752E8</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" t="n">
-        <v>2.147483647E9</v>
+        <v>1.1111111E7</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
         <v>76</v>
@@ -823,266 +871,266 @@
         <v>79</v>
       </c>
       <c r="D16" t="n">
-        <v>6.99857412E8</v>
+        <v>9.5123578E7</v>
       </c>
       <c r="E16" t="s">
         <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D17" t="n">
-        <v>9.87456321E8</v>
+        <v>2.147483647E9</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D18" t="n">
-        <v>6.99029507E8</v>
+        <v>6.99857412E8</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
         <v>90</v>
       </c>
-      <c r="C19" t="s">
-        <v>91</v>
-      </c>
       <c r="D19" t="n">
-        <v>6.66665568E8</v>
+        <v>9.87456321E8</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D20" t="n">
-        <v>6.5842597E7</v>
+        <v>6.99029507E8</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D21" t="n">
-        <v>6.99029507E8</v>
+        <v>6.90019403E8</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="G21" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D22" t="n">
-        <v>6.4547375E7</v>
+        <v>6.66665568E8</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D23" t="n">
-        <v>6.5822387E7</v>
+        <v>6.5842597E7</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="G23" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D24" t="n">
-        <v>6.58745236E8</v>
+        <v>6.99029507E8</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D25" t="n">
-        <v>6.58996478E8</v>
+        <v>6.4547375E7</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>6.58746677E8</v>
+        <v>6.5822387E7</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D27" t="n">
-        <v>1.23456789E8</v>
+        <v>6.58745236E8</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
         <v>129</v>
@@ -1099,16 +1147,85 @@
         <v>132</v>
       </c>
       <c r="D28" t="n">
-        <v>4.5613345E7</v>
+        <v>6.58996478E8</v>
       </c>
       <c r="E28" t="s">
         <v>133</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>134</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6.58746677E8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4.5613345E7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
